--- a/Technologischemachbarkeit.xlsx
+++ b/Technologischemachbarkeit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sander\Documents\Kostentool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sander\Documents\Kostentool\github_max\FeatureVergleich\Methodik-Technologie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89555E14-B4A8-44E7-A04E-8D81C4EAE484}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537BF4CB-48E0-4315-B781-F753F1B31343}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="28785" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -635,290 +635,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CE8"/>
+  <dimension ref="A1:CD8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="22.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="24.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="24.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BC1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BD1" s="2" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BF1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BG1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BH1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BI1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BJ1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BK1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BL1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BM1" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="BM1" s="2"/>
       <c r="BN1" s="2"/>
       <c r="BO1" s="2"/>
       <c r="BP1" s="2"/>
@@ -936,473 +935,286 @@
       <c r="CB1" s="2"/>
       <c r="CC1" s="2"/>
       <c r="CD1" s="2"/>
-      <c r="CE1" s="2"/>
     </row>
-    <row r="2" spans="1:83" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I2" s="1">
         <v>1000</v>
       </c>
       <c r="J2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M2" s="1">
         <v>1000</v>
       </c>
       <c r="N2" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
         <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="Q2" s="1">
         <v>600</v>
       </c>
-      <c r="R2" s="1">
-        <v>600</v>
-      </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
+      <c r="AV2" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="AW2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BA2" s="1"/>
-      <c r="BB2" s="1"/>
-      <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1"/>
-      <c r="BF2" s="1"/>
-      <c r="BG2" s="1"/>
-      <c r="BH2" s="1"/>
-      <c r="BI2" s="1"/>
-      <c r="BJ2" s="1"/>
-      <c r="BK2" s="1"/>
-      <c r="BL2" s="1"/>
-      <c r="BM2" s="1"/>
-      <c r="BN2" s="1"/>
-      <c r="BO2" s="1"/>
-      <c r="BP2" s="1"/>
-      <c r="BQ2" s="1"/>
-      <c r="BR2" s="1"/>
-      <c r="BS2" s="1"/>
-      <c r="BT2" s="1"/>
-      <c r="BU2" s="1"/>
-      <c r="BV2" s="1"/>
-      <c r="BW2" s="1"/>
-      <c r="BX2" s="1"/>
-      <c r="BY2" s="1"/>
-      <c r="BZ2" s="1"/>
-      <c r="CA2" s="1"/>
-      <c r="CB2" s="1"/>
-      <c r="CC2" s="1"/>
-      <c r="CD2" s="1"/>
-      <c r="CE2" s="1"/>
     </row>
-    <row r="3" spans="1:83" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I3" s="1">
         <v>3000</v>
       </c>
       <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1">
         <v>3000</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>0</v>
       </c>
       <c r="AG3" s="1">
         <v>3000</v>
       </c>
       <c r="AH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
         <v>3000</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ3" s="1">
-        <v>25</v>
-      </c>
-      <c r="BA3" s="1"/>
-      <c r="BB3" s="1"/>
-      <c r="BC3" s="1"/>
-      <c r="BD3" s="1"/>
-      <c r="BE3" s="1"/>
-      <c r="BF3" s="1"/>
-      <c r="BG3" s="1"/>
-      <c r="BH3" s="1"/>
-      <c r="BI3" s="1"/>
-      <c r="BJ3" s="1"/>
-      <c r="BK3" s="1"/>
-      <c r="BL3" s="1"/>
-      <c r="BM3" s="1"/>
-      <c r="BN3" s="1"/>
-      <c r="BO3" s="1"/>
-      <c r="BP3" s="1"/>
-      <c r="BQ3" s="1"/>
-      <c r="BR3" s="1"/>
-      <c r="BS3" s="1"/>
-      <c r="BT3" s="1"/>
-      <c r="BU3" s="1"/>
-      <c r="BV3" s="1"/>
-      <c r="BW3" s="1"/>
-      <c r="BX3" s="1"/>
-      <c r="BY3" s="1"/>
-      <c r="BZ3" s="1"/>
-      <c r="CA3" s="1"/>
-      <c r="CB3" s="1"/>
-      <c r="CC3" s="1"/>
-      <c r="CD3" s="1"/>
-      <c r="CE3" s="1"/>
-    </row>
-    <row r="4" spans="1:83" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
       </c>
       <c r="I4" s="1">
         <v>3000</v>
       </c>
       <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="1">
         <v>3000</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="R4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>0</v>
       </c>
       <c r="AG4" s="1">
         <v>3000</v>
       </c>
       <c r="AH4" s="1">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="1">
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" s="1">
         <v>1000</v>
       </c>
-      <c r="AL4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1"/>
+      <c r="AV4" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="AW4" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AZ4" s="1">
+      <c r="AY4" s="1">
         <v>25</v>
       </c>
-      <c r="BA4" s="1"/>
-      <c r="BB4" s="1"/>
-      <c r="BC4" s="1"/>
-      <c r="BD4" s="1"/>
-      <c r="BE4" s="1"/>
-      <c r="BF4" s="1"/>
-      <c r="BG4" s="1"/>
-      <c r="BH4" s="1"/>
-      <c r="BI4" s="1"/>
-      <c r="BJ4" s="1"/>
-      <c r="BK4" s="1"/>
-      <c r="BL4" s="1"/>
-      <c r="BM4" s="1"/>
-      <c r="BN4" s="1"/>
-      <c r="BO4" s="1"/>
-      <c r="BP4" s="1"/>
-      <c r="BQ4" s="1"/>
-      <c r="BR4" s="1"/>
-      <c r="BS4" s="1"/>
-      <c r="BT4" s="1"/>
-      <c r="BU4" s="1"/>
-      <c r="BV4" s="1"/>
-      <c r="BW4" s="1"/>
-      <c r="BX4" s="1"/>
-      <c r="BY4" s="1"/>
-      <c r="BZ4" s="1"/>
-      <c r="CA4" s="1"/>
-      <c r="CB4" s="1"/>
-      <c r="CC4" s="1"/>
-      <c r="CD4" s="1"/>
-      <c r="CE4" s="1"/>
     </row>
-    <row r="5" spans="1:83" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
       <c r="S5" s="1">
         <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="U5" s="1">
         <v>1500</v>
       </c>
       <c r="V5" s="1">
-        <v>1500</v>
+        <v>6</v>
       </c>
       <c r="W5" s="1">
         <v>6</v>
@@ -1413,113 +1225,43 @@
       <c r="Y5" s="1">
         <v>6</v>
       </c>
-      <c r="Z5" s="1">
-        <v>6</v>
-      </c>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
+      <c r="AV5" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="AW5" s="1" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AZ5" s="1">
+      <c r="AY5" s="1">
         <v>25</v>
       </c>
-      <c r="BA5" s="1"/>
-      <c r="BB5" s="1"/>
-      <c r="BC5" s="1"/>
-      <c r="BD5" s="1"/>
-      <c r="BE5" s="1"/>
-      <c r="BF5" s="1"/>
-      <c r="BG5" s="1"/>
-      <c r="BH5" s="1"/>
-      <c r="BI5" s="1"/>
-      <c r="BJ5" s="1"/>
-      <c r="BK5" s="1"/>
-      <c r="BL5" s="1"/>
-      <c r="BM5" s="1"/>
-      <c r="BN5" s="1"/>
-      <c r="BO5" s="1"/>
-      <c r="BP5" s="1"/>
-      <c r="BQ5" s="1"/>
-      <c r="BR5" s="1"/>
-      <c r="BS5" s="1"/>
-      <c r="BT5" s="1"/>
-      <c r="BU5" s="1"/>
-      <c r="BV5" s="1"/>
-      <c r="BW5" s="1"/>
-      <c r="BX5" s="1"/>
-      <c r="BY5" s="1"/>
-      <c r="BZ5" s="1"/>
-      <c r="CA5" s="1"/>
-      <c r="CB5" s="1"/>
-      <c r="CC5" s="1"/>
-      <c r="CD5" s="1"/>
-      <c r="CE5" s="1"/>
     </row>
-    <row r="6" spans="1:83" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
       <c r="S6" s="1">
         <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="U6" s="1">
         <v>1500</v>
       </c>
       <c r="V6" s="1">
-        <v>1500</v>
+        <v>8</v>
       </c>
       <c r="W6" s="1">
         <v>8</v>
@@ -1530,117 +1272,49 @@
       <c r="Y6" s="1">
         <v>8</v>
       </c>
-      <c r="Z6" s="1">
-        <v>8</v>
-      </c>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="1"/>
-      <c r="AS6" s="1"/>
-      <c r="AT6" s="1"/>
-      <c r="AU6" s="1"/>
-      <c r="AV6" s="1"/>
+      <c r="AV6" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="AW6" s="1" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AZ6" s="1">
+      <c r="AY6" s="1">
         <v>25</v>
       </c>
-      <c r="BA6" s="1"/>
-      <c r="BB6" s="1"/>
-      <c r="BC6" s="1"/>
-      <c r="BD6" s="1"/>
-      <c r="BE6" s="1"/>
-      <c r="BF6" s="1"/>
-      <c r="BG6" s="1"/>
-      <c r="BH6" s="1"/>
-      <c r="BI6" s="1"/>
-      <c r="BJ6" s="1"/>
-      <c r="BK6" s="1"/>
-      <c r="BL6" s="1"/>
-      <c r="BM6" s="1"/>
-      <c r="BN6" s="1"/>
-      <c r="BO6" s="1"/>
-      <c r="BP6" s="1"/>
-      <c r="BQ6" s="1"/>
-      <c r="BR6" s="1"/>
-      <c r="BS6" s="1"/>
-      <c r="BT6" s="1"/>
-      <c r="BU6" s="1"/>
-      <c r="BV6" s="1"/>
-      <c r="BW6" s="1"/>
-      <c r="BX6" s="1"/>
-      <c r="BY6" s="1"/>
-      <c r="BZ6" s="1"/>
-      <c r="CA6" s="1"/>
-      <c r="CB6" s="1"/>
-      <c r="CC6" s="1"/>
-      <c r="CD6" s="1"/>
-      <c r="CE6" s="1"/>
     </row>
-    <row r="7" spans="1:83" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
+    <row r="7" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
         <v>3</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
       <c r="S7" s="1">
         <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="U7" s="1">
         <v>1500</v>
       </c>
       <c r="V7" s="1">
-        <v>1500</v>
+        <v>10</v>
       </c>
       <c r="W7" s="1">
         <v>10</v>
@@ -1651,203 +1325,83 @@
       <c r="Y7" s="1">
         <v>10</v>
       </c>
-      <c r="Z7" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="1"/>
-      <c r="AS7" s="1"/>
-      <c r="AT7" s="1"/>
-      <c r="AU7" s="1"/>
-      <c r="AV7" s="1"/>
+      <c r="AV7" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="AW7" s="1" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AZ7" s="1">
+      <c r="AY7" s="1">
         <v>25</v>
       </c>
-      <c r="BA7" s="1"/>
-      <c r="BB7" s="1"/>
-      <c r="BC7" s="1"/>
-      <c r="BD7" s="1"/>
-      <c r="BE7" s="1"/>
-      <c r="BF7" s="1"/>
-      <c r="BG7" s="1"/>
-      <c r="BH7" s="1"/>
-      <c r="BI7" s="1"/>
-      <c r="BJ7" s="1"/>
-      <c r="BK7" s="1"/>
-      <c r="BL7" s="1"/>
-      <c r="BM7" s="1"/>
-      <c r="BN7" s="1"/>
-      <c r="BO7" s="1"/>
-      <c r="BP7" s="1"/>
-      <c r="BQ7" s="1"/>
-      <c r="BR7" s="1"/>
-      <c r="BS7" s="1"/>
-      <c r="BT7" s="1"/>
-      <c r="BU7" s="1"/>
-      <c r="BV7" s="1"/>
-      <c r="BW7" s="1"/>
-      <c r="BX7" s="1"/>
-      <c r="BY7" s="1"/>
-      <c r="BZ7" s="1"/>
-      <c r="CA7" s="1"/>
-      <c r="CB7" s="1"/>
-      <c r="CC7" s="1"/>
-      <c r="CD7" s="1"/>
-      <c r="CE7" s="1"/>
     </row>
-    <row r="8" spans="1:83" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>6</v>
+    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
         <v>2</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="I8" s="1">
         <v>2800</v>
       </c>
       <c r="J8" s="1">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M8" s="1">
         <v>1000</v>
       </c>
       <c r="N8" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Q8" s="1">
         <v>400</v>
       </c>
-      <c r="R8" s="1">
-        <v>400</v>
-      </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
-      <c r="AR8" s="1"/>
-      <c r="AS8" s="1"/>
-      <c r="AT8" s="1"/>
-      <c r="AU8" s="1"/>
-      <c r="AV8" s="1"/>
+      <c r="AV8" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="AW8" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AZ8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA8" s="1"/>
-      <c r="BB8" s="1"/>
-      <c r="BC8" s="1"/>
-      <c r="BD8" s="1"/>
-      <c r="BE8" s="1"/>
-      <c r="BF8" s="1"/>
-      <c r="BG8" s="1"/>
-      <c r="BH8" s="1"/>
-      <c r="BI8" s="1"/>
-      <c r="BJ8" s="1"/>
-      <c r="BK8" s="1"/>
-      <c r="BL8" s="1"/>
-      <c r="BM8" s="1"/>
-      <c r="BN8" s="1"/>
-      <c r="BO8" s="1"/>
-      <c r="BP8" s="1"/>
-      <c r="BQ8" s="1"/>
-      <c r="BR8" s="1"/>
-      <c r="BS8" s="1"/>
-      <c r="BT8" s="1"/>
-      <c r="BU8" s="1"/>
-      <c r="BV8" s="1"/>
-      <c r="BW8" s="1"/>
-      <c r="BX8" s="1"/>
-      <c r="BY8" s="1"/>
-      <c r="BZ8" s="1"/>
-      <c r="CA8" s="1"/>
-      <c r="CB8" s="1"/>
-      <c r="CC8" s="1"/>
-      <c r="CD8" s="1"/>
-      <c r="CE8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
